--- a/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4673E6A0-8279-431D-ACCD-3BA4B21951D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA8437C-95AC-422A-8852-6F4C1FF33928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C6951C2-92E5-42BD-A84B-78E10A1DE4F8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9472CFCE-4F55-41F4-A496-50EE1EAD6F52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,11%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>79,89%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>13,55%</t>
   </si>
   <si>
-    <t>10,94%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>89,06%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,103 +194,109 @@
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>14,28%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>85,72%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73877B4-A760-4C3D-AD1B-28A1A5C7D936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE50A13C-F66C-4EB1-BDAC-B57089ABB6CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -984,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -993,13 +1005,13 @@
         <v>228367</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>583</v>
@@ -1008,13 +1020,13 @@
         <v>521235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1029,13 +1041,13 @@
         <v>1867982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2592</v>
@@ -1044,13 +1056,13 @@
         <v>2018893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4326</v>
@@ -1059,13 +1071,13 @@
         <v>3886875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1121,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1133,13 +1145,13 @@
         <v>50238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -1148,13 +1160,13 @@
         <v>57247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -1163,13 +1175,13 @@
         <v>107485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1196,13 @@
         <v>622801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>921</v>
@@ -1199,13 +1211,13 @@
         <v>655853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1548</v>
@@ -1214,13 +1226,13 @@
         <v>1278654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1300,13 @@
         <v>451852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>783</v>
@@ -1303,13 +1315,13 @@
         <v>497620</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1243</v>
@@ -1318,13 +1330,13 @@
         <v>949472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1351,13 @@
         <v>2922709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4561</v>
@@ -1354,13 +1366,13 @@
         <v>3295664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7463</v>
@@ -1369,13 +1381,13 @@
         <v>6218374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA8437C-95AC-422A-8852-6F4C1FF33928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2EEDEC-0923-4B56-A345-33C9C12595DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9472CFCE-4F55-41F4-A496-50EE1EAD6F52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC97834-2F79-4816-95C9-CADAB198CD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE50A13C-F66C-4EB1-BDAC-B57089ABB6CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6A2C18-3449-4A5A-8E60-2AEDDC55711E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2EEDEC-0923-4B56-A345-33C9C12595DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8BA8A3-052E-47B1-A7B4-D98D93E98C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC97834-2F79-4816-95C9-CADAB198CD6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41875AC9-3267-4606-9832-101CC0DBD7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,11%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>79,89%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>13,55%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>10,94%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>89,06%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +188,103 @@
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>14,28%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>86,88%</t>
   </si>
   <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>85,72%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6A2C18-3449-4A5A-8E60-2AEDDC55711E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC54DBB-6EE0-41F8-82D0-92183480DB99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -996,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -1005,13 +993,13 @@
         <v>228367</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>583</v>
@@ -1020,13 +1008,13 @@
         <v>521235</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,13 +1029,13 @@
         <v>1867982</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2592</v>
@@ -1056,13 +1044,13 @@
         <v>2018893</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4326</v>
@@ -1071,13 +1059,13 @@
         <v>3886875</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1133,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1133,13 @@
         <v>50238</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -1160,13 +1148,13 @@
         <v>57247</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -1175,13 +1163,13 @@
         <v>107485</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1184,13 @@
         <v>622801</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>921</v>
@@ -1211,13 +1199,13 @@
         <v>655853</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1548</v>
@@ -1226,13 +1214,13 @@
         <v>1278654</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1288,13 @@
         <v>451852</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>783</v>
@@ -1315,13 +1303,13 @@
         <v>497620</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1243</v>
@@ -1330,13 +1318,13 @@
         <v>949472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1339,13 @@
         <v>2922709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>4561</v>
@@ -1366,13 +1354,13 @@
         <v>3295664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>7463</v>
@@ -1381,13 +1369,13 @@
         <v>6218374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8BA8A3-052E-47B1-A7B4-D98D93E98C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE44D7B3-2DD4-4B58-B2C8-4295E604A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41875AC9-3267-4606-9832-101CC0DBD7A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{915E022F-B91C-450B-AD8D-F8C7D6140ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -71,220 +71,232 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>74,73%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>88,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC54DBB-6EE0-41F8-82D0-92183480DB99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2879D2A-BDAF-411A-A70E-8883E4C48F99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -820,7 +832,7 @@
         <v>149</v>
       </c>
       <c r="D4" s="7">
-        <v>108746</v>
+        <v>99073</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -835,7 +847,7 @@
         <v>375</v>
       </c>
       <c r="I4" s="7">
-        <v>212006</v>
+        <v>187778</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -850,7 +862,7 @@
         <v>524</v>
       </c>
       <c r="N4" s="7">
-        <v>320751</v>
+        <v>286851</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -871,7 +883,7 @@
         <v>541</v>
       </c>
       <c r="D5" s="7">
-        <v>431927</v>
+        <v>414998</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -886,7 +898,7 @@
         <v>1048</v>
       </c>
       <c r="I5" s="7">
-        <v>620918</v>
+        <v>565172</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -901,7 +913,7 @@
         <v>1589</v>
       </c>
       <c r="N5" s="7">
-        <v>1052846</v>
+        <v>980170</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -922,7 +934,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540673</v>
+        <v>514071</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -937,7 +949,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>832924</v>
+        <v>752950</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -952,7 +964,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1373597</v>
+        <v>1267021</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -975,7 +987,7 @@
         <v>257</v>
       </c>
       <c r="D7" s="7">
-        <v>292868</v>
+        <v>464649</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -984,37 +996,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
       </c>
       <c r="I7" s="7">
-        <v>228367</v>
+        <v>201319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>583</v>
       </c>
       <c r="N7" s="7">
-        <v>521235</v>
+        <v>665968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,46 +1038,46 @@
         <v>1734</v>
       </c>
       <c r="D8" s="7">
-        <v>1867982</v>
+        <v>1824652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2592</v>
       </c>
       <c r="I8" s="7">
-        <v>2018893</v>
+        <v>2034360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4326</v>
       </c>
       <c r="N8" s="7">
-        <v>3886875</v>
+        <v>3859012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,7 +1089,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160850</v>
+        <v>2289301</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1092,7 +1104,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247260</v>
+        <v>2235679</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1107,7 +1119,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4408110</v>
+        <v>4524980</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1121,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1130,46 +1142,46 @@
         <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>50238</v>
+        <v>45612</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>57247</v>
+        <v>51393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>107485</v>
+        <v>97005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1181,46 +1193,46 @@
         <v>627</v>
       </c>
       <c r="D11" s="7">
-        <v>622801</v>
+        <v>601011</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>921</v>
       </c>
       <c r="I11" s="7">
-        <v>655853</v>
+        <v>608331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1548</v>
       </c>
       <c r="N11" s="7">
-        <v>1278654</v>
+        <v>1209343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1247,7 +1259,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713100</v>
+        <v>659724</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1262,7 +1274,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386139</v>
+        <v>1306348</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1285,46 +1297,46 @@
         <v>460</v>
       </c>
       <c r="D13" s="7">
-        <v>451852</v>
+        <v>609334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>783</v>
       </c>
       <c r="I13" s="7">
-        <v>497620</v>
+        <v>440490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1243</v>
       </c>
       <c r="N13" s="7">
-        <v>949472</v>
+        <v>1049824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,46 +1348,46 @@
         <v>2902</v>
       </c>
       <c r="D14" s="7">
-        <v>2922709</v>
+        <v>2840662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4561</v>
       </c>
       <c r="I14" s="7">
-        <v>3295664</v>
+        <v>3207862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7463</v>
       </c>
       <c r="N14" s="7">
-        <v>6218374</v>
+        <v>6048524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,7 +1399,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374561</v>
+        <v>3449996</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1402,7 +1414,7 @@
         <v>5344</v>
       </c>
       <c r="I15" s="7">
-        <v>3793284</v>
+        <v>3648352</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1417,7 +1429,7 @@
         <v>8706</v>
       </c>
       <c r="N15" s="7">
-        <v>7167846</v>
+        <v>7098348</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1431,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
